--- a/sample data/Sample Supreme Products for the Week of September 15 2022 (Week 4 of FW22) - One Sheet.xlsx
+++ b/sample data/Sample Supreme Products for the Week of September 15 2022 (Week 4 of FW22) - One Sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="371">
   <si>
     <t>Name</t>
   </si>
@@ -49,6 +49,9 @@
     <t>Colors</t>
   </si>
   <si>
+    <t>Sizes</t>
+  </si>
+  <si>
     <t>Backpack</t>
   </si>
   <si>
@@ -1097,6 +1100,33 @@
   </si>
   <si>
     <t>Red,White,Black</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>129,139,149</t>
+  </si>
+  <si>
+    <t>54MM</t>
+  </si>
+  <si>
+    <t>8 1/2</t>
+  </si>
+  <si>
+    <t>8 1/8</t>
+  </si>
+  <si>
+    <t>Small,Medium,Large,XLarge</t>
+  </si>
+  <si>
+    <t>30,32,34,36,38</t>
+  </si>
+  <si>
+    <t>Small,Medium,Large,XLarge,XXL</t>
+  </si>
+  <si>
+    <t>S/M,M/L</t>
   </si>
 </sst>
 </file>
@@ -1454,13 +1484,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1494,19 +1524,22 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>175303</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E2">
         <v>158</v>
@@ -1521,27 +1554,30 @@
         <v>52</v>
       </c>
       <c r="I2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>297</v>
+      </c>
+      <c r="L2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>175260</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E3">
         <v>148</v>
@@ -1556,27 +1592,30 @@
         <v>53</v>
       </c>
       <c r="I3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>298</v>
+      </c>
+      <c r="L3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>175327</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E4">
         <v>148</v>
@@ -1591,27 +1630,30 @@
         <v>54</v>
       </c>
       <c r="I4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>299</v>
+      </c>
+      <c r="L4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>175331</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E5">
         <v>54</v>
@@ -1626,27 +1668,30 @@
         <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>300</v>
+      </c>
+      <c r="L5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>175272</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E6">
         <v>48</v>
@@ -1661,27 +1706,30 @@
         <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>301</v>
+      </c>
+      <c r="L6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>175300</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E7">
         <v>58</v>
@@ -1696,27 +1744,30 @@
         <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>302</v>
+      </c>
+      <c r="L7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>175261</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E8">
         <v>60</v>
@@ -1731,27 +1782,30 @@
         <v>65</v>
       </c>
       <c r="I8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K8" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>303</v>
+      </c>
+      <c r="L8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>175310</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E9">
         <v>36</v>
@@ -1766,27 +1820,30 @@
         <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>304</v>
+      </c>
+      <c r="L9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>175302</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E10">
         <v>58</v>
@@ -1801,27 +1858,30 @@
         <v>67</v>
       </c>
       <c r="I10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K10" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>305</v>
+      </c>
+      <c r="L10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>175313</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E11">
         <v>58</v>
@@ -1836,27 +1896,30 @@
         <v>68</v>
       </c>
       <c r="I11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K11" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>306</v>
+      </c>
+      <c r="L11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>175369</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E12">
         <v>158</v>
@@ -1871,27 +1934,30 @@
         <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K12" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>307</v>
+      </c>
+      <c r="L12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>175335</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E13">
         <v>148</v>
@@ -1906,27 +1972,30 @@
         <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K13" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>308</v>
+      </c>
+      <c r="L13" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>175309</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E14">
         <v>128</v>
@@ -1941,24 +2010,27 @@
         <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K14" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>309</v>
+      </c>
+      <c r="L14" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>175314</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E15">
         <v>128</v>
@@ -1973,27 +2045,30 @@
         <v>16</v>
       </c>
       <c r="I15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K15" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>310</v>
+      </c>
+      <c r="L15" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>175361</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E16">
         <v>198</v>
@@ -2008,27 +2083,30 @@
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K16" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>311</v>
+      </c>
+      <c r="L16" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>175368</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E17">
         <v>148</v>
@@ -2043,27 +2121,30 @@
         <v>36</v>
       </c>
       <c r="I17" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J17" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K17" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>312</v>
+      </c>
+      <c r="L17" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>175343</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E18">
         <v>178</v>
@@ -2078,27 +2159,30 @@
         <v>37</v>
       </c>
       <c r="I18" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J18" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K18" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>313</v>
+      </c>
+      <c r="L18" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>175291</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E19">
         <v>178</v>
@@ -2113,27 +2197,30 @@
         <v>38</v>
       </c>
       <c r="I19" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J19" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K19" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>314</v>
+      </c>
+      <c r="L19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20">
         <v>175351</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E20">
         <v>138</v>
@@ -2148,27 +2235,30 @@
         <v>39</v>
       </c>
       <c r="I20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J20" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K20" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>315</v>
+      </c>
+      <c r="L20" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21">
         <v>175334</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E21">
         <v>168</v>
@@ -2183,27 +2273,30 @@
         <v>40</v>
       </c>
       <c r="I21" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J21" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K21" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>316</v>
+      </c>
+      <c r="L21" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22">
         <v>175297</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E22">
         <v>168</v>
@@ -2218,27 +2311,30 @@
         <v>41</v>
       </c>
       <c r="I22" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K22" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>317</v>
+      </c>
+      <c r="L22" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23">
         <v>175265</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E23">
         <v>158</v>
@@ -2253,27 +2349,30 @@
         <v>42</v>
       </c>
       <c r="I23" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J23" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K23" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>318</v>
+      </c>
+      <c r="L23" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24">
         <v>175267</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E24">
         <v>168</v>
@@ -2288,27 +2387,30 @@
         <v>43</v>
       </c>
       <c r="I24" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J24" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K24" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>319</v>
+      </c>
+      <c r="L24" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25">
         <v>175308</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E25">
         <v>178</v>
@@ -2323,27 +2425,30 @@
         <v>44</v>
       </c>
       <c r="I25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J25" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K25" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>320</v>
+      </c>
+      <c r="L25" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26">
         <v>175285</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E26">
         <v>158</v>
@@ -2358,27 +2463,30 @@
         <v>45</v>
       </c>
       <c r="I26" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J26" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K26" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>321</v>
+      </c>
+      <c r="L26" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>175367</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E27">
         <v>138</v>
@@ -2393,27 +2501,30 @@
         <v>4</v>
       </c>
       <c r="I27" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J27" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K27" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>322</v>
+      </c>
+      <c r="L27" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28">
         <v>175268</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E28">
         <v>118</v>
@@ -2428,27 +2539,30 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J28" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K28" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>323</v>
+      </c>
+      <c r="L28" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29">
         <v>175366</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D29" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E29">
         <v>110</v>
@@ -2463,27 +2577,30 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J29" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K29" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>324</v>
+      </c>
+      <c r="L29" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30">
         <v>175362</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E30">
         <v>48</v>
@@ -2498,27 +2615,30 @@
         <v>6</v>
       </c>
       <c r="I30" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J30" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K30" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>325</v>
+      </c>
+      <c r="L30" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>175354</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E31">
         <v>158</v>
@@ -2533,27 +2653,30 @@
         <v>11</v>
       </c>
       <c r="I31" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J31" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K31" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>326</v>
+      </c>
+      <c r="L31" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <v>175357</v>
       </c>
       <c r="C32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D32" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E32">
         <v>98</v>
@@ -2568,27 +2691,30 @@
         <v>24</v>
       </c>
       <c r="I32" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J32" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K32" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>327</v>
+      </c>
+      <c r="L32" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33">
         <v>175365</v>
       </c>
       <c r="C33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D33" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E33">
         <v>88</v>
@@ -2603,27 +2729,30 @@
         <v>25</v>
       </c>
       <c r="I33" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J33" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K33" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>328</v>
+      </c>
+      <c r="L33" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34">
         <v>175321</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E34">
         <v>198</v>
@@ -2638,27 +2767,30 @@
         <v>12</v>
       </c>
       <c r="I34" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J34" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K34" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>329</v>
+      </c>
+      <c r="L34" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35">
         <v>175349</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D35" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E35">
         <v>138</v>
@@ -2673,27 +2805,30 @@
         <v>26</v>
       </c>
       <c r="I35" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J35" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K35" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>330</v>
+      </c>
+      <c r="L35" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36">
         <v>175277</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E36">
         <v>78</v>
@@ -2708,27 +2843,30 @@
         <v>27</v>
       </c>
       <c r="I36" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J36" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K36" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>331</v>
+      </c>
+      <c r="L36" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>175333</v>
       </c>
       <c r="C37" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E37">
         <v>98</v>
@@ -2743,27 +2881,30 @@
         <v>28</v>
       </c>
       <c r="I37" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J37" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K37" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>332</v>
+      </c>
+      <c r="L37" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38">
         <v>175269</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E38">
         <v>60</v>
@@ -2778,27 +2919,30 @@
         <v>29</v>
       </c>
       <c r="I38" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J38" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K38" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>333</v>
+      </c>
+      <c r="L38" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39">
         <v>175346</v>
       </c>
       <c r="C39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E39">
         <v>88</v>
@@ -2813,27 +2957,30 @@
         <v>30</v>
       </c>
       <c r="I39" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J39" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K39" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>334</v>
+      </c>
+      <c r="L39" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B40">
         <v>175273</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E40">
         <v>40</v>
@@ -2848,27 +2995,30 @@
         <v>31</v>
       </c>
       <c r="I40" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J40" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K40" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>335</v>
+      </c>
+      <c r="L40" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B41">
         <v>175316</v>
       </c>
       <c r="C41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E41">
         <v>40</v>
@@ -2883,27 +3033,30 @@
         <v>32</v>
       </c>
       <c r="I41" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J41" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K41" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>336</v>
+      </c>
+      <c r="L41" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>175275</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D42" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E42">
         <v>40</v>
@@ -2918,27 +3071,30 @@
         <v>33</v>
       </c>
       <c r="I42" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J42" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K42" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>337</v>
+      </c>
+      <c r="L42" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43">
         <v>175311</v>
       </c>
       <c r="C43" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D43" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E43">
         <v>40</v>
@@ -2953,27 +3109,30 @@
         <v>34</v>
       </c>
       <c r="I43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J43" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K43" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>338</v>
+      </c>
+      <c r="L43" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B44">
         <v>175305</v>
       </c>
       <c r="C44" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D44" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E44">
         <v>40</v>
@@ -2988,27 +3147,30 @@
         <v>35</v>
       </c>
       <c r="I44" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J44" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K44" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>339</v>
+      </c>
+      <c r="L44" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>175363</v>
       </c>
       <c r="C45" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D45" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E45">
         <v>298</v>
@@ -3023,27 +3185,30 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J45" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K45" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>340</v>
+      </c>
+      <c r="L45" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B46">
         <v>175358</v>
       </c>
       <c r="C46" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D46" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E46">
         <v>238</v>
@@ -3058,27 +3223,30 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J46" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K46" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>341</v>
+      </c>
+      <c r="L46" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B47">
         <v>175279</v>
       </c>
       <c r="C47" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D47" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E47">
         <v>198</v>
@@ -3093,27 +3261,30 @@
         <v>7</v>
       </c>
       <c r="I47" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J47" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K47" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>342</v>
+      </c>
+      <c r="L47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B48">
         <v>175345</v>
       </c>
       <c r="C48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D48" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E48">
         <v>198</v>
@@ -3128,27 +3299,30 @@
         <v>8</v>
       </c>
       <c r="I48" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J48" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K48" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>343</v>
+      </c>
+      <c r="L48" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B49">
         <v>175312</v>
       </c>
       <c r="C49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D49" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E49">
         <v>498</v>
@@ -3163,27 +3337,30 @@
         <v>9</v>
       </c>
       <c r="I49" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J49" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K49" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>344</v>
+      </c>
+      <c r="L49" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B50">
         <v>175353</v>
       </c>
       <c r="C50" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D50" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E50">
         <v>148</v>
@@ -3198,27 +3375,30 @@
         <v>10</v>
       </c>
       <c r="I50" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J50" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K50" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>345</v>
+      </c>
+      <c r="L50" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B51">
         <v>175359</v>
       </c>
       <c r="C51" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D51" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E51">
         <v>188</v>
@@ -3233,27 +3413,30 @@
         <v>17</v>
       </c>
       <c r="I51" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J51" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K51" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>346</v>
+      </c>
+      <c r="L51" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B52">
         <v>175370</v>
       </c>
       <c r="C52" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D52" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E52">
         <v>158</v>
@@ -3268,27 +3451,30 @@
         <v>18</v>
       </c>
       <c r="I52" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J52" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K52" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>347</v>
+      </c>
+      <c r="L52" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B53">
         <v>175296</v>
       </c>
       <c r="C53" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D53" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E53">
         <v>178</v>
@@ -3303,27 +3489,30 @@
         <v>19</v>
       </c>
       <c r="I53" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J53" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K53" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>348</v>
+      </c>
+      <c r="L53" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B54">
         <v>175337</v>
       </c>
       <c r="C54" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D54" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E54">
         <v>158</v>
@@ -3338,27 +3527,30 @@
         <v>20</v>
       </c>
       <c r="I54" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J54" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K54" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>349</v>
+      </c>
+      <c r="L54" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B55">
         <v>175330</v>
       </c>
       <c r="C55" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D55" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E55">
         <v>138</v>
@@ -3373,27 +3565,30 @@
         <v>21</v>
       </c>
       <c r="I55" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J55" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K55" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>350</v>
+      </c>
+      <c r="L55" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B56">
         <v>175280</v>
       </c>
       <c r="C56" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D56" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E56">
         <v>158</v>
@@ -3408,27 +3603,30 @@
         <v>22</v>
       </c>
       <c r="I56" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J56" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K56" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>351</v>
+      </c>
+      <c r="L56" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>175342</v>
       </c>
       <c r="C57" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D57" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E57">
         <v>178</v>
@@ -3443,27 +3641,30 @@
         <v>23</v>
       </c>
       <c r="I57" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J57" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K57" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>352</v>
+      </c>
+      <c r="L57" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B58">
         <v>175360</v>
       </c>
       <c r="C58" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D58" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E58">
         <v>48</v>
@@ -3478,27 +3679,30 @@
         <v>5</v>
       </c>
       <c r="I58" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J58" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K58" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>340</v>
+      </c>
+      <c r="L58" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B59">
         <v>175355</v>
       </c>
       <c r="C59" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D59" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E59">
         <v>48</v>
@@ -3513,27 +3717,30 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J59" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K59" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>353</v>
+      </c>
+      <c r="L59" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B60">
         <v>175356</v>
       </c>
       <c r="C60" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D60" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E60">
         <v>54</v>
@@ -3548,27 +3755,30 @@
         <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J60" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K60" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>354</v>
+      </c>
+      <c r="L60" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B61">
         <v>175338</v>
       </c>
       <c r="C61" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D61" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E61">
         <v>58</v>
@@ -3583,27 +3793,30 @@
         <v>49</v>
       </c>
       <c r="I61" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J61" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K61" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>355</v>
+      </c>
+      <c r="L61" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B62">
         <v>175298</v>
       </c>
       <c r="C62" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D62" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E62">
         <v>48</v>
@@ -3618,27 +3831,30 @@
         <v>50</v>
       </c>
       <c r="I62" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J62" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K62" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+        <v>356</v>
+      </c>
+      <c r="L62" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B63">
         <v>175322</v>
       </c>
       <c r="C63" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D63" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E63">
         <v>38</v>
@@ -3653,27 +3869,30 @@
         <v>51</v>
       </c>
       <c r="I63" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J63" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K63" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>357</v>
+      </c>
+      <c r="L63" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B64">
         <v>175364</v>
       </c>
       <c r="C64" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D64" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E64">
         <v>98</v>
@@ -3688,27 +3907,30 @@
         <v>58</v>
       </c>
       <c r="I64" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J64" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K64" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>346</v>
+      </c>
+      <c r="L64" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B65">
         <v>175293</v>
       </c>
       <c r="C65" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D65" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E65">
         <v>58</v>
@@ -3723,27 +3945,30 @@
         <v>59</v>
       </c>
       <c r="I65" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J65" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K65" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>358</v>
+      </c>
+      <c r="L65" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B66">
         <v>175320</v>
       </c>
       <c r="C66" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D66" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E66">
         <v>30</v>
@@ -3758,27 +3983,30 @@
         <v>60</v>
       </c>
       <c r="I66" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J66" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K66" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+        <v>359</v>
+      </c>
+      <c r="L66" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B67">
         <v>175292</v>
       </c>
       <c r="C67" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D67" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E67">
         <v>34</v>
@@ -3793,27 +4021,30 @@
         <v>61</v>
       </c>
       <c r="I67" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J67" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K67" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <v>360</v>
+      </c>
+      <c r="L67" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B68">
         <v>175304</v>
       </c>
       <c r="C68" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D68" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E68">
         <v>40</v>
@@ -3828,27 +4059,30 @@
         <v>62</v>
       </c>
       <c r="I68" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J68" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K68" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+        <v>359</v>
+      </c>
+      <c r="L68" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B69">
         <v>175317</v>
       </c>
       <c r="C69" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D69" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E69">
         <v>32</v>
@@ -3863,27 +4097,30 @@
         <v>63</v>
       </c>
       <c r="I69" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J69" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K69" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+        <v>361</v>
+      </c>
+      <c r="L69" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B70">
         <v>175289</v>
       </c>
       <c r="C70" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D70" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E70">
         <v>24</v>
@@ -3898,13 +4135,16 @@
         <v>64</v>
       </c>
       <c r="I70" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J70" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K70" t="s">
-        <v>358</v>
+        <v>359</v>
+      </c>
+      <c r="L70" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>
